--- a/八月提成表/8月份提成表正式版（9-1）.xlsx
+++ b/八月提成表/8月份提成表正式版（9-1）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$42</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>门店朱莉40元1个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店20元8个,40元4个，60元4个</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1043,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1411,7 +1415,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="4">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1427,28 +1431,32 @@
       </c>
       <c r="I8" s="21">
         <f t="shared" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="J8" s="4">
+        <v>560</v>
+      </c>
       <c r="K8" s="26">
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="4"/>
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="R8" s="30"/>
       <c r="S8" s="3" t="s">
         <v>68</v>
@@ -3036,7 +3044,7 @@
       <c r="C41" s="34"/>
       <c r="D41" s="8">
         <f>SUM(D3:D40)</f>
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E41" s="25">
         <f>SUM(E3:E40)</f>
@@ -3056,11 +3064,11 @@
       </c>
       <c r="I41" s="23">
         <f t="shared" ref="I41" si="7">D41*20+E41*40+F41*60+G41*100+H41*300</f>
-        <v>1580</v>
+        <v>1020</v>
       </c>
       <c r="J41" s="23">
         <f>SUM(J3:J40)</f>
-        <v>4460</v>
+        <v>5020</v>
       </c>
       <c r="K41" s="23">
         <f>SUM(K3:K40)</f>
@@ -3068,15 +3076,15 @@
       </c>
       <c r="L41" s="24">
         <f>SUM(L1:L39)</f>
-        <v>1338</v>
+        <v>1506</v>
       </c>
       <c r="M41" s="24">
         <f>SUM(M3:M38)</f>
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="N41" s="24">
         <f>SUM(N3:N38)</f>
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="O41" s="23">
         <f>K41*0.03</f>

--- a/八月提成表/8月份提成表正式版（9-1）.xlsx
+++ b/八月提成表/8月份提成表正式版（9-1）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$43</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,42 @@
   </si>
   <si>
     <t>门店20元8个,40元4个，60元4个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>那赫男</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补前一个月漏发的提成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +742,9 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,6 +788,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,62 +1087,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
     <col min="10" max="10" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
     <col min="17" max="17" width="39.375" style="1" customWidth="1"/>
     <col min="19" max="19" width="14.625" customWidth="1"/>
     <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="37.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
@@ -1148,7 +1191,7 @@
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="19">
@@ -1170,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="21">
-        <f t="shared" ref="I3:I40" si="0">D3*20+E3*40+F3*60+G3*100+H3*300</f>
+        <f t="shared" ref="I3:I41" si="0">D3*20+E3*40+F3*60+G3*100+H3*300</f>
         <v>0</v>
       </c>
       <c r="J3" s="4">
@@ -1202,7 +1245,7 @@
       <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1270,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K40" si="1">SUM(I4+J4)</f>
+        <f t="shared" ref="K4:K41" si="1">SUM(I4+J4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="5">
@@ -1235,11 +1278,11 @@
         <v>0</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M4:M40" si="3">(D4*20+E4*40+F4*60+G4*100+H4*300)*0.15</f>
+        <f t="shared" ref="M4:M41" si="3">(D4*20+E4*40+F4*60+G4*100+H4*300)*0.15</f>
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" ref="N4:N40" si="4">(D4*20+E4*40+F4*60+G4*100+H4*300)*0.15</f>
+        <f t="shared" ref="N4:N41" si="4">(D4*20+E4*40+F4*60+G4*100+H4*300)*0.15</f>
         <v>0</v>
       </c>
       <c r="O4" s="6"/>
@@ -1250,7 +1293,7 @@
       <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1341,7 @@
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="19" t="s">
         <v>32</v>
       </c>
@@ -1354,7 +1397,7 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1453,7 @@
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="19" t="s">
         <v>33</v>
       </c>
@@ -1466,7 +1509,7 @@
       <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -1492,12 +1535,12 @@
       <c r="J9" s="4">
         <v>700</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="26">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" ref="L9:L40" si="5">J9*0.3</f>
+        <f t="shared" ref="L9:L41" si="5">J9*0.3</f>
         <v>210</v>
       </c>
       <c r="M9" s="5">
@@ -1518,7 +1561,7 @@
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -1570,7 +1613,7 @@
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1618,7 +1661,7 @@
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="19" t="s">
         <v>37</v>
       </c>
@@ -1670,7 +1713,7 @@
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
@@ -1718,7 +1761,7 @@
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="19" t="s">
         <v>38</v>
       </c>
@@ -1766,7 +1809,7 @@
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="19" t="s">
         <v>8</v>
       </c>
@@ -1814,7 +1857,7 @@
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="19" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1905,7 @@
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="19" t="s">
         <v>22</v>
       </c>
@@ -1910,12 +1953,12 @@
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1931,14 +1974,14 @@
       </c>
       <c r="I18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J18" s="4">
         <v>220</v>
       </c>
-      <c r="K18" s="18">
-        <f t="shared" si="1"/>
-        <v>220</v>
+      <c r="K18" s="26">
+        <f t="shared" si="1"/>
+        <v>380</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="5"/>
@@ -1946,11 +1989,11 @@
       </c>
       <c r="M18" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="4"/>
@@ -1962,7 +2005,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="19" t="s">
         <v>39</v>
       </c>
@@ -2010,7 +2053,7 @@
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
       </c>
@@ -2058,7 +2101,7 @@
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="19" t="s">
         <v>10</v>
       </c>
@@ -2106,7 +2149,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="19" t="s">
         <v>3</v>
       </c>
@@ -2154,7 +2197,7 @@
       <c r="A23" s="20">
         <v>21</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="19" t="s">
         <v>11</v>
       </c>
@@ -2202,7 +2245,7 @@
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="19" t="s">
         <v>12</v>
       </c>
@@ -2254,7 +2297,7 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="19" t="s">
         <v>41</v>
       </c>
@@ -2302,7 +2345,7 @@
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="19" t="s">
         <v>13</v>
       </c>
@@ -2350,7 +2393,7 @@
       <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="19" t="s">
         <v>69</v>
       </c>
@@ -2402,7 +2445,7 @@
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="19" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2493,7 @@
       <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="19" t="s">
         <v>24</v>
       </c>
@@ -2498,12 +2541,12 @@
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2519,11 +2562,12 @@
       </c>
       <c r="I30" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="15">
-        <v>0</v>
+      <c r="K30" s="18">
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="5"/>
@@ -2531,11 +2575,11 @@
       </c>
       <c r="M30" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="4"/>
@@ -2545,7 +2589,7 @@
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="19" t="s">
         <v>26</v>
       </c>
@@ -2593,7 +2637,7 @@
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="19" t="s">
         <v>27</v>
       </c>
@@ -2641,7 +2685,7 @@
       <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="19" t="s">
         <v>28</v>
       </c>
@@ -2693,7 +2737,7 @@
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="19" t="s">
         <v>29</v>
       </c>
@@ -2741,7 +2785,7 @@
       <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="19" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +2833,7 @@
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="19" t="s">
         <v>15</v>
       </c>
@@ -2837,7 +2881,7 @@
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="43"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="19" t="s">
         <v>51</v>
       </c>
@@ -2884,7 +2928,7 @@
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="44"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="19" t="s">
         <v>52</v>
       </c>
@@ -2932,11 +2976,11 @@
       <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>44</v>
+      <c r="B39" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -2954,188 +2998,218 @@
         <v>0</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>3000</v>
-      </c>
-      <c r="K39" s="26">
-        <f>SUM(I39+J39)</f>
-        <v>3000</v>
-      </c>
+        <f t="shared" ref="I39" si="6">D39*20+E39*40+F39*60+G39*100+H39*300</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="5">
-        <f>J39*0.3</f>
-        <v>900</v>
+        <v>18</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M39" si="7">(D39*20+E39*40+F39*60+G39*100+H39*300)*0.15</f>
         <v>0</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="6">
-        <f>O41*0.7</f>
-        <v>126.83999999999999</v>
-      </c>
+        <f t="shared" ref="N39" si="8">(D39*20+E39*40+F39*60+G39*100+H39*300)*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="46"/>
+      <c r="B40" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="C40" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K40" s="26">
+        <f>SUM(I40+J40)</f>
+        <v>3000</v>
+      </c>
+      <c r="L40" s="5">
+        <f>J40*0.3</f>
+        <v>900</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <f>O42*0.7</f>
+        <v>133.13999999999999</v>
+      </c>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A41" s="20">
+        <v>39</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M40" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <f>O41*0.3</f>
-        <v>54.359999999999992</v>
-      </c>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="32" t="s">
+      <c r="M41" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <f>O42*0.3</f>
+        <v>57.059999999999995</v>
+      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A42" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="8">
-        <f>SUM(D3:D40)</f>
-        <v>41</v>
-      </c>
-      <c r="E41" s="25">
-        <f>SUM(E3:E40)</f>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="8">
+        <f>SUM(D3:D41)</f>
+        <v>56</v>
+      </c>
+      <c r="E42" s="25">
+        <f>SUM(E3:E41)</f>
         <v>5</v>
       </c>
-      <c r="F41" s="25">
-        <f>SUM(F3:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="25">
-        <f t="shared" ref="G41:H41" si="6">SUM(G3:G40)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="23">
-        <f t="shared" ref="I41" si="7">D41*20+E41*40+F41*60+G41*100+H41*300</f>
-        <v>1020</v>
-      </c>
-      <c r="J41" s="23">
-        <f>SUM(J3:J40)</f>
+      <c r="F42" s="25">
+        <f>SUM(F3:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="25">
+        <f>SUM(G3:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="25">
+        <f>SUM(H3:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="23">
+        <f>SUM(I3:I41)</f>
+        <v>1320</v>
+      </c>
+      <c r="J42" s="23">
+        <f>SUM(J3:J41)</f>
         <v>5020</v>
       </c>
-      <c r="K41" s="23">
-        <f>SUM(K3:K40)</f>
-        <v>6040</v>
-      </c>
-      <c r="L41" s="24">
-        <f>SUM(L1:L39)</f>
-        <v>1506</v>
-      </c>
-      <c r="M41" s="24">
+      <c r="K42" s="23">
+        <f>SUM(K3:K41)</f>
+        <v>6340</v>
+      </c>
+      <c r="L42" s="24">
+        <f>SUM(L1:L41)</f>
+        <v>1524</v>
+      </c>
+      <c r="M42" s="24">
         <f>SUM(M3:M38)</f>
-        <v>153</v>
-      </c>
-      <c r="N41" s="24">
+        <v>198</v>
+      </c>
+      <c r="N42" s="24">
         <f>SUM(N3:N38)</f>
-        <v>153</v>
-      </c>
-      <c r="O41" s="23">
-        <f>K41*0.03</f>
-        <v>181.2</v>
-      </c>
-      <c r="P41" s="22">
-        <f>SUM(L41:O41)</f>
-        <v>1993.2</v>
-      </c>
-      <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A42" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="O42" s="23">
+        <f>K42*0.03</f>
+        <v>190.2</v>
+      </c>
+      <c r="P42" s="22">
+        <f>SUM(L42:O42)</f>
+        <v>2110.1999999999998</v>
+      </c>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A43" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="14"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="14"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1"/>
@@ -3156,21 +3230,89 @@
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="T45" s="9"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="T46" s="9"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <v>122</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.6692913385826772" right="0.6692913385826772" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="67" fitToWidth="2" orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
